--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.438912998862663E-07</v>
+        <v>2.361557811981688E-05</v>
       </c>
       <c r="E2">
-        <v>1.438912998862663E-07</v>
+        <v>2.361557811981688E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9302522570439969</v>
+        <v>0.9993276578237307</v>
       </c>
       <c r="E3">
-        <v>0.9302522570439969</v>
+        <v>0.9993276578237307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,13 +472,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8081442169755537</v>
+        <v>0.002848182626287424</v>
       </c>
       <c r="E4">
-        <v>0.1918557830244463</v>
+        <v>0.9971518173737126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9998171067973506</v>
+        <v>0.9982600664929326</v>
       </c>
       <c r="E6">
-        <v>0.0001828932026494146</v>
+        <v>0.001739933507067359</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0001086172653986506</v>
+        <v>1.989479141991188E-05</v>
       </c>
       <c r="E7">
-        <v>0.9998913827346013</v>
+        <v>0.9999801052085801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,16 +531,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.136856209772707E-09</v>
+        <v>2.30213536446217E-14</v>
       </c>
       <c r="E8">
-        <v>0.9999999938631438</v>
+        <v>0.999999999999977</v>
       </c>
       <c r="F8">
-        <v>4.416100025177002</v>
+        <v>7.913569927215576</v>
       </c>
       <c r="G8">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
